--- a/xlsx/健康_intext.xlsx
+++ b/xlsx/健康_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="435">
   <si>
     <t>健康</t>
   </si>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>基礎醫學</t>
+    <t>基础医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8</t>
   </si>
   <si>
-    <t>組織學</t>
+    <t>组织学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%9A%E8%83%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>胚胎學</t>
+    <t>胚胎学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E5%AF%84%E7%94%9F%E8%99%AB%E5%AD%A6</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>免疫學</t>
+    <t>免疫学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>病理學</t>
+    <t>病理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E7%90%86%E7%94%9F%E7%90%86%E5%AD%A6</t>
@@ -95,73 +95,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>細胞學</t>
+    <t>细胞学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>營養學</t>
+    <t>营养学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>藥理學</t>
+    <t>药理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>毒理學</t>
+    <t>毒理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>內科學</t>
+    <t>内科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E9%BC%BB%E5%96%89%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>耳鼻喉科學</t>
+    <t>耳鼻喉科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>眼科學</t>
+    <t>眼科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>心臟病學</t>
+    <t>心脏病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔醫學</t>
+    <t>胸腔医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%83%E8%85%B8%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>胃腸病學</t>
+    <t>胃肠病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%87%9F%E7%A7%91</t>
   </si>
   <si>
-    <t>腎臟科</t>
+    <t>肾脏科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%97%85%E5%AD%A6</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳染病學</t>
+    <t>传染病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>腫瘤學</t>
+    <t>肿瘤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>內分泌學</t>
+    <t>内分泌学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%B9%BF%E7%97%85%E5%AD%A6</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>兒童醫學</t>
+    <t>儿童医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人醫學</t>
+    <t>老人医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>皮膚病學</t>
+    <t>皮肤病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%9C%BC%E7%A7%91%E5%AD%A6</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%A4%96%E7%A7%91</t>
   </si>
   <si>
-    <t>神經外科</t>
+    <t>神经外科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%94%E5%A4%96%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>胸腔外科學</t>
+    <t>胸腔外科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%84%8F%E5%A4%96%E7%A7%91</t>
@@ -263,73 +263,73 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦產科學</t>
+    <t>妇产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>婦科學</t>
+    <t>妇科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>產科學</t>
+    <t>产科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>解剖學</t>
+    <t>解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>預防醫學</t>
+    <t>预防医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床醫學</t>
+    <t>临床医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>麻醉學</t>
+    <t>麻醉学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神醫學</t>
+    <t>精神医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E5%81%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>復健科學</t>
+    <t>复健科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>旅遊醫學</t>
+    <t>旅游医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>中醫學</t>
+    <t>中医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%B2%E5%90%A0%E9%99%80</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓醫學</t>
+    <t>韩医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E6%96%B9%E5%8C%BB%E5%AD%A6</t>
@@ -353,43 +353,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>藏醫學</t>
+    <t>藏医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>蒙醫學</t>
+    <t>蒙医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E5%8B%A2%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>順勢療法</t>
+    <t>顺势疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>代替醫療</t>
+    <t>代替医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E9%A9%97%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>檢驗醫學</t>
+    <t>检验医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>醫學影像</t>
+    <t>医学影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8C%BB%E5%AD%A6</t>
@@ -401,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>法醫學</t>
+    <t>法医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%95%B0%E5%AD%A6</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E7%8B%80</t>
   </si>
   <si>
-    <t>症狀</t>
+    <t>症状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -461,55 +461,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>專科醫生</t>
+    <t>专科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E9%86%AB%E5%AD%B8%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>家庭醫學科醫師</t>
+    <t>家庭医学科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E9%86%89%E7%A7%91%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>麻醉科醫生</t>
+    <t>麻醉科医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E9%86%AB%E5%B8%AB</t>
   </si>
   <si>
-    <t>外科醫師</t>
+    <t>外科医师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>護理人員</t>
+    <t>护理人员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%AA%A2%E9%A9%97%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事檢驗師</t>
+    <t>医事检验师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%8A%91%E5%B8%AB</t>
   </si>
   <si>
-    <t>藥劑師</t>
+    <t>药剂师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>物理治療師</t>
+    <t>物理治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82%E5%B8%AB</t>
   </si>
   <si>
-    <t>職能治療師</t>
+    <t>职能治疗师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E6%B2%BB%E7%96%97%E5%B8%88</t>
@@ -521,61 +521,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%B8%AB</t>
   </si>
   <si>
-    <t>營養師</t>
+    <t>营养师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E4%BA%8B%E6%94%BE%E5%B0%84%E5%B8%AB</t>
   </si>
   <si>
-    <t>醫事放射師</t>
+    <t>医事放射师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>藥物治療</t>
+    <t>药物治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%A7%91%E6%89%8B%E8%A1%93</t>
   </si>
   <si>
-    <t>外科手術</t>
+    <t>外科手术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>化學療法</t>
+    <t>化学疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>心理治療</t>
+    <t>心理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>物理治療</t>
+    <t>物理治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E8%83%BD%E6%B2%BB%E7%99%82</t>
   </si>
   <si>
-    <t>職能治療</t>
+    <t>职能治疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>醫學史</t>
+    <t>医学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學倫理學</t>
+    <t>医学伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -587,25 +587,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>代謝</t>
+    <t>代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%81%A5%E5%BA%B7%E5%8A%9F%E8%83%BD%E8%88%87%E8%BA%AB%E5%BF%83%E9%9A%9C%E7%A4%99%E5%88%86%E9%A1%9E%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>國際健康功能與身心障礙分類系統</t>
+    <t>国际健康功能与身心障碍分类系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%96%BE%E7%97%85%E8%88%87%E7%9B%B8%E9%97%9C%E5%81%A5%E5%BA%B7%E5%95%8F%E9%A1%8C%E7%B5%B1%E8%A8%88%E5%88%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>國際疾病與相關健康問題統計分類</t>
+    <t>国际疾病与相关健康问题统计分类</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/health_care_provider</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E9%86%AB</t>
   </si>
   <si>
-    <t>獸醫</t>
+    <t>兽医</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/healthy_community_design</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>壓力 (醫學)</t>
+    <t>压力 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8B%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>動態平衡</t>
+    <t>动态平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%A1%A1%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>均衡飲食</t>
+    <t>均衡饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%B4%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -701,7 +701,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%82%AA</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4%E7%B4%A0</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>飲食</t>
+    <t>饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>飲食金字塔</t>
+    <t>饮食金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E8%83%96</t>
@@ -755,19 +755,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%BD%E5%9B%BA%E9%86%87</t>
   </si>
   <si>
-    <t>膽固醇</t>
+    <t>胆固醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E9%8D%9B%E7%85%89</t>
   </si>
   <si>
-    <t>體能鍛煉</t>
+    <t>体能锻炼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E7%8E%AF%E7%B3%BB%E7%BB%9F</t>
@@ -779,37 +779,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E9%81%A9%E8%83%BD</t>
   </si>
   <si>
-    <t>體適能</t>
+    <t>体适能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>荷屬東印度群島</t>
+    <t>荷属东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>人體</t>
+    <t>人体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
+    <t>生物化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%AD%B8</t>
   </si>
   <si>
-    <t>藥學</t>
+    <t>药学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>衛生教育</t>
+    <t>卫生教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%B7%A5%E7%A8%8B</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/population_health</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/community_health</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>職業衛生</t>
+    <t>职业卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%85%B3%E7%B3%BB</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E7%B7%9A</t>
   </si>
   <si>
-    <t>牙線</t>
+    <t>牙线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8</t>
@@ -941,9 +941,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E5%85%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>营养学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%BE%E7%97%85%E9%A2%84%E9%98%B2</t>
   </si>
   <si>
@@ -971,9 +968,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%86%E5%9B%BA%E9%86%87</t>
   </si>
   <si>
-    <t>胆固醇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E5%8E%8B</t>
   </si>
   <si>
@@ -1013,43 +1007,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E8%A6%BA%E5%A4%B1%E8%AA%BF%E7%97%87</t>
   </si>
   <si>
-    <t>思覺失調症</t>
+    <t>思觉失调症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%8A%9B%E7%BC%BA%E9%99%B7%E9%81%8E%E5%8B%95%E7%97%87</t>
   </si>
   <si>
-    <t>注意力缺陷過動症</t>
+    <t>注意力缺陷过动症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%80%A7%E6%86%82%E9%AC%B1%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>重性憂鬱障礙</t>
+    <t>重性忧郁障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%81%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>躁鬱症</t>
+    <t>躁郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E6%85%AE%E7%97%87</t>
   </si>
   <si>
-    <t>焦慮症</t>
+    <t>焦虑症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E5%82%B7%E5%BE%8C%E5%BF%83%E7%90%86%E5%A3%93%E5%8A%9B%E7%B7%8A%E5%BC%B5%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>創傷後心理壓力緊張症候群</t>
+    <t>创伤后心理压力紧张症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E9%96%89%E7%97%87%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>自閉症光譜</t>
+    <t>自闭症光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%BB%AA%E6%8A%91%E9%83%81</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%BF%AB%E7%94%A8</t>
   </si>
   <si>
-    <t>物質濫用</t>
+    <t>物质滥用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8</t>
@@ -1079,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
   </si>
   <si>
-    <t>職業病</t>
+    <t>职业病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E5%A1%B5%E7%97%85</t>
   </si>
   <si>
-    <t>肺塵病</t>
+    <t>肺尘病</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/silicosis</t>
@@ -1115,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%81%E9%BA%BB%E7%96%B9</t>
   </si>
   <si>
-    <t>蕁麻疹</t>
+    <t>荨麻疹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%82%8E</t>
   </si>
   <si>
-    <t>皮膚炎</t>
+    <t>皮肤炎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E7%96%B9</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%86%9A%E7%99%8C</t>
   </si>
   <si>
-    <t>皮膚癌</t>
+    <t>皮肤癌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%95%E9%9A%A7%E9%81%93%E7%97%87%E5%80%99%E7%BE%A4</t>
@@ -1151,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%9B%E4%B8%AD%E6%AF%92</t>
   </si>
   <si>
-    <t>鉛中毒</t>
+    <t>铅中毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E6%A5%AD</t>
   </si>
   <si>
-    <t>服務業</t>
+    <t>服务业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sedentary_lifestyle</t>
@@ -1169,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第一產業</t>
+    <t>第一产业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stress_(psychological)</t>
@@ -1217,19 +1211,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%81%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>保健科學</t>
+    <t>保健科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
   </si>
   <si>
-    <t>医学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%BB%B6%E7%BA%8C</t>
   </si>
   <si>
-    <t>生命延續</t>
+    <t>生命延续</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Health_system</t>
@@ -1271,13 +1262,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E5%8F%B2</t>
   </si>
   <si>
-    <t>医学史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Global_burden_of_disease</t>
@@ -1295,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>疫苗爭議</t>
+    <t>疫苗争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Archive.is</t>
@@ -1313,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -6139,7 +6127,7 @@
         <v>307</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6165,10 +6153,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6194,10 +6182,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6223,10 +6211,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6252,10 +6240,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6281,10 +6269,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6310,10 +6298,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6339,10 +6327,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6368,10 +6356,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6397,10 +6385,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6426,10 +6414,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -6455,10 +6443,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6484,10 +6472,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6513,10 +6501,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6542,10 +6530,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6571,10 +6559,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6600,10 +6588,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6629,10 +6617,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6658,10 +6646,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6687,10 +6675,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6716,10 +6704,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6745,10 +6733,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6774,10 +6762,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>11</v>
@@ -6803,10 +6791,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6832,10 +6820,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6861,10 +6849,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6890,10 +6878,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6919,10 +6907,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6948,10 +6936,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6977,10 +6965,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7006,10 +6994,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7035,10 +7023,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7064,10 +7052,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7093,10 +7081,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7122,10 +7110,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7151,10 +7139,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7180,10 +7168,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7209,10 +7197,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7238,10 +7226,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7267,10 +7255,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7296,10 +7284,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7325,10 +7313,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7354,10 +7342,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F196" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7383,10 +7371,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F197" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7412,10 +7400,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F198" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7441,10 +7429,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F199" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>19</v>
@@ -7470,10 +7458,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F200" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7499,10 +7487,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="G201" t="n">
         <v>8</v>
@@ -7557,10 +7545,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7586,10 +7574,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7615,10 +7603,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7644,10 +7632,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7673,10 +7661,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7702,10 +7690,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7731,10 +7719,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7760,10 +7748,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>184</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7789,10 +7777,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7818,10 +7806,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7847,10 +7835,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -7876,10 +7864,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7905,10 +7893,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7934,10 +7922,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7963,10 +7951,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -7992,10 +7980,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8021,10 +8009,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8050,10 +8038,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>

--- a/xlsx/健康_intext.xlsx
+++ b/xlsx/健康_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_加州_健康</t>
+    <t>体育运动_体育运动_体能锻炼_健康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
